--- a/data/survival.xlsx
+++ b/data/survival.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shosh\OneDrive\2 PhD\GIT\bush-stone-curlew-reinforcement-outcomes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/bush-stone-curlew-reinforcement-outcomes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55D58F7B-BC1B-48C4-B7B8-6296E1827A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:9_{55D58F7B-BC1B-48C4-B7B8-6296E1827A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B09E1BF-A59B-4BC1-9599-059EA58662D9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{5F3EB54A-58A8-45DD-BDA8-F45CF5BAC1C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F3EB54A-58A8-45DD-BDA8-F45CF5BAC1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="survival" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +734,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,15 +1060,15 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,110 +1091,110 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
-        <v>44859</v>
+        <v>45086</v>
       </c>
       <c r="D2" s="1">
-        <v>45167</v>
+        <v>45146</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>44859</v>
       </c>
       <c r="D3" s="1">
-        <v>45303</v>
+        <v>45167</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
-        <v>44863</v>
+        <v>45087</v>
       </c>
       <c r="D4" s="1">
-        <v>44996</v>
+        <v>45146</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>44863</v>
       </c>
       <c r="D5" s="1">
-        <v>45299</v>
+        <v>44996</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>44863</v>
+        <v>44942</v>
       </c>
       <c r="D6" s="1">
-        <v>44872</v>
+        <v>45080</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1199,67 +1203,67 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>44909</v>
+        <v>44942</v>
       </c>
       <c r="D7" s="1">
-        <v>45302</v>
+        <v>45045</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>44909</v>
+        <v>45085</v>
       </c>
       <c r="D8" s="1">
-        <v>45302</v>
+        <v>45143</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
-        <v>44909</v>
+        <v>45087</v>
       </c>
       <c r="D9" s="1">
-        <v>45104</v>
+        <v>45124</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1268,67 +1272,67 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
-        <v>44938</v>
+        <v>45084</v>
       </c>
       <c r="D10" s="1">
-        <v>44999</v>
+        <v>45303</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
-        <v>44938</v>
+        <v>45087</v>
       </c>
       <c r="D11" s="1">
-        <v>45001</v>
+        <v>45301</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>44939</v>
+        <v>44909</v>
       </c>
       <c r="D12" s="1">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1337,18 +1341,18 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>44939</v>
+        <v>45084</v>
       </c>
       <c r="D13" s="1">
         <v>45302</v>
@@ -1360,136 +1364,136 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>44942</v>
+        <v>45088</v>
       </c>
       <c r="D14" s="1">
-        <v>45080</v>
+        <v>45146</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>44942</v>
+        <v>45085</v>
       </c>
       <c r="D15" s="1">
-        <v>45045</v>
+        <v>45146</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>44942</v>
+        <v>44909</v>
       </c>
       <c r="D16" s="1">
-        <v>44950</v>
+        <v>45302</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="D17" s="1">
-        <v>45303</v>
+        <v>45143</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="D18" s="1">
-        <v>45302</v>
+        <v>45147</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>45084</v>
+        <v>44939</v>
       </c>
       <c r="D19" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1498,64 +1502,64 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>45084</v>
+        <v>44863</v>
       </c>
       <c r="D20" s="1">
-        <v>45147</v>
+        <v>45299</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>45085</v>
+        <v>44938</v>
       </c>
       <c r="D21" s="1">
-        <v>45143</v>
+        <v>44999</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="D22" s="1">
         <v>45146</v>
@@ -1567,61 +1571,61 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="D23" s="1">
-        <v>45145</v>
+        <v>45144</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>45085</v>
+        <v>44859</v>
       </c>
       <c r="D24" s="1">
-        <v>45153</v>
+        <v>45303</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>45086</v>
@@ -1639,41 +1643,41 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="D26" s="1">
-        <v>45147</v>
+        <v>45145</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>45086</v>
+        <v>44938</v>
       </c>
       <c r="D27" s="1">
-        <v>45144</v>
+        <v>45001</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1682,136 +1686,136 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="D28" s="1">
-        <v>45146</v>
+        <v>45145</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
-        <v>45087</v>
+        <v>44909</v>
       </c>
       <c r="D29" s="1">
-        <v>45146</v>
+        <v>45104</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>45087</v>
+        <v>45084</v>
       </c>
       <c r="D30" s="1">
-        <v>45124</v>
+        <v>45302</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>45087</v>
+        <v>45085</v>
       </c>
       <c r="D31" s="1">
-        <v>45301</v>
+        <v>45153</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>45087</v>
+        <v>44863</v>
       </c>
       <c r="D32" s="1">
-        <v>45143</v>
+        <v>44872</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="D33" s="1">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
@@ -1820,56 +1824,56 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>45088</v>
+        <v>44939</v>
       </c>
       <c r="D34" s="1">
-        <v>45146</v>
+        <v>45302</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1">
-        <v>45088</v>
+        <v>44942</v>
       </c>
       <c r="D35" s="1">
-        <v>45145</v>
+        <v>44950</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1893,6 +1897,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
+    <sortCondition ref="B1:B36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1905,32 +1912,32 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="42">
+    <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="56">
+    <row r="4" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="28">
+    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
